--- a/Test_Java.xlsx
+++ b/Test_Java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_PROJECT\java_IS216.M22_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FE8BFA-96EA-46F0-8B26-E315D8956074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A833D32-8D4E-47FB-818C-61167F39C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{B8D1F164-A574-4483-9105-F3E622FB4AF2}"/>
   </bookViews>
